--- a/test/rms/docs/office_locations.xlsx
+++ b/test/rms/docs/office_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="440" windowWidth="27720" windowHeight="19800" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="120" windowWidth="29620" windowHeight="19920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -360,6 +360,13 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -399,14 +406,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -425,6 +432,13 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -762,9 +776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -861,7 +875,7 @@
         <v>http://bit.ly/rms_newark</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="120">
+    <row r="3" spans="1:13" ht="105">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -904,7 +918,7 @@
         <v>http://bit.ly/rms_peoria</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="120">
+    <row r="4" spans="1:13" ht="90">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -947,7 +961,7 @@
         <v>http://bit.ly/rms_bloomington</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="120">
+    <row r="5" spans="1:13" ht="105">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>http://bit.ly/rms_hackensack</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="120">
+    <row r="6" spans="1:13" ht="105">
       <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
@@ -1076,7 +1090,7 @@
         <v>http://bit.ly/rms_london</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="120">
+    <row r="8" spans="1:13" ht="90">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
@@ -1162,7 +1176,7 @@
         <v>http://bit.ly/rms_zurich</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="120">
+    <row r="10" spans="1:13" ht="90">
       <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
@@ -1205,7 +1219,7 @@
         <v>http://bit.ly/rms_noida</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="120">
+    <row r="11" spans="1:13" ht="90">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -1220,18 +1234,18 @@
         <v>RMS%20China%20-%20Beijing,%20China</v>
       </c>
       <c r="E11" s="10">
-        <v>39.926556721329597</v>
+        <v>39.921172999928501</v>
       </c>
       <c r="F11" s="10">
-        <v>116.341968700289</v>
+        <v>116.35764889419001</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.bing.com/maps/?v=2&amp;cp=39.9265567213296~116.341968700289&amp;lvl=15&amp;dir=0&amp;sty=r&amp;cid=58B1D550BC610B44!119&amp;FORM=LMLTCC</v>
+        <v>http://www.bing.com/maps/?v=2&amp;cp=39.9211729999285~116.35764889419&amp;lvl=15&amp;dir=0&amp;sty=r&amp;cid=58B1D550BC610B44!119&amp;FORM=LMLTCC</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.bing.com/maps/?v=2&amp;cp=39.9265567213296~116.341968700289&amp;lvl=13&amp;dir=0&amp;sty=r&amp;rtp=adr.~pos.39.9265567213296_116.341968700289__RMS%20China%20-%20Beijing,%20China__a_&amp;mode=D&amp;rtop=0~0~0~&amp;FORM=LMLTCC</v>
+        <v>http://www.bing.com/maps/?v=2&amp;cp=39.9211729999285~116.35764889419&amp;lvl=13&amp;dir=0&amp;sty=r&amp;rtp=adr.~pos.39.9211729999285_116.35764889419__RMS%20China%20-%20Beijing,%20China__a_&amp;mode=D&amp;rtop=0~0~0~&amp;FORM=LMLTCC</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>39</v>
@@ -1248,7 +1262,7 @@
         <v>http://bit.ly/rms_beijing</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="120">
+    <row r="12" spans="1:13" ht="105">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
@@ -1263,18 +1277,18 @@
         <v>RMS%20Japan%20-%20Tokyo,%20Japan</v>
       </c>
       <c r="E12" s="10">
-        <v>35.649999752640703</v>
+        <v>35.674936138211798</v>
       </c>
       <c r="F12" s="10">
-        <v>139.749999716877</v>
+        <v>139.73740799999999</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.bing.com/maps/?v=2&amp;cp=35.6499997526407~139.749999716877&amp;lvl=15&amp;dir=0&amp;sty=r&amp;cid=58B1D550BC610B44!119&amp;FORM=LMLTCC</v>
+        <v>http://www.bing.com/maps/?v=2&amp;cp=35.6749361382118~139.737408&amp;lvl=15&amp;dir=0&amp;sty=r&amp;cid=58B1D550BC610B44!119&amp;FORM=LMLTCC</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.bing.com/maps/?v=2&amp;cp=35.6499997526407~139.749999716877&amp;lvl=13&amp;dir=0&amp;sty=r&amp;rtp=adr.~pos.35.6499997526407_139.749999716877__RMS%20Japan%20-%20Tokyo,%20Japan__a_&amp;mode=D&amp;rtop=0~0~0~&amp;FORM=LMLTCC</v>
+        <v>http://www.bing.com/maps/?v=2&amp;cp=35.6749361382118~139.737408&amp;lvl=13&amp;dir=0&amp;sty=r&amp;rtp=adr.~pos.35.6749361382118_139.737408__RMS%20Japan%20-%20Tokyo,%20Japan__a_&amp;mode=D&amp;rtop=0~0~0~&amp;FORM=LMLTCC</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>40</v>
